--- a/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
+++ b/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">

--- a/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
+++ b/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">

--- a/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
+++ b/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">

--- a/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
+++ b/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">

--- a/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
+++ b/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">

--- a/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
+++ b/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">

--- a/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
+++ b/DATA/ALOHAPP/USER/DE/1000WORDSGERMAN.xlsx
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
